--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="H2">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="I2">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="J2">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N2">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="O2">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P2">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q2">
-        <v>1.951442020964677</v>
+        <v>3.368323642933778</v>
       </c>
       <c r="R2">
-        <v>1.951442020964677</v>
+        <v>30.314912786404</v>
       </c>
       <c r="S2">
-        <v>0.006520554053089268</v>
+        <v>0.007217331878058651</v>
       </c>
       <c r="T2">
-        <v>0.006520554053089268</v>
+        <v>0.007217331878058654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="H3">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="I3">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="J3">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.28470786752469</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N3">
-        <v>2.28470786752469</v>
+        <v>0.048275</v>
       </c>
       <c r="O3">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P3">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q3">
-        <v>3.1916003460228</v>
+        <v>0.02953302510555556</v>
       </c>
       <c r="R3">
-        <v>3.1916003460228</v>
+        <v>0.26579722595</v>
       </c>
       <c r="S3">
-        <v>0.01066442269282095</v>
+        <v>6.328063041002239E-05</v>
       </c>
       <c r="T3">
-        <v>0.01066442269282095</v>
+        <v>6.328063041002239E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="H4">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="I4">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="J4">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.655669757001791</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N4">
-        <v>8.655669757001791</v>
+        <v>16.265306</v>
       </c>
       <c r="O4">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P4">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q4">
-        <v>12.09145334691568</v>
+        <v>9.950568419420891</v>
       </c>
       <c r="R4">
-        <v>12.09145334691568</v>
+        <v>89.55511577478802</v>
       </c>
       <c r="S4">
-        <v>0.04040241743385006</v>
+        <v>0.02132115624012262</v>
       </c>
       <c r="T4">
-        <v>0.04040241743385006</v>
+        <v>0.02132115624012263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="H5">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="I5">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="J5">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.12965263830334</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N5">
-        <v>1.12965263830334</v>
+        <v>28.087946</v>
       </c>
       <c r="O5">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P5">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q5">
-        <v>1.578057222344443</v>
+        <v>17.18326285616756</v>
       </c>
       <c r="R5">
-        <v>1.578057222344443</v>
+        <v>154.649365705508</v>
       </c>
       <c r="S5">
-        <v>0.005272924999369537</v>
+        <v>0.03681870387991024</v>
       </c>
       <c r="T5">
-        <v>0.005272924999369537</v>
+        <v>0.03681870387991024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,123 +773,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39694023528735</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="H6">
-        <v>1.39694023528735</v>
+        <v>5.505898</v>
       </c>
       <c r="I6">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="J6">
-        <v>0.08074994769713023</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.8326101842985</v>
+        <v>1.133543</v>
       </c>
       <c r="N6">
-        <v>3.8326101842985</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O6">
-        <v>0.2215435307165678</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P6">
-        <v>0.2215435307165678</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q6">
-        <v>5.35392737261864</v>
+        <v>2.080390712204666</v>
       </c>
       <c r="R6">
-        <v>5.35392737261864</v>
+        <v>18.723516409842</v>
       </c>
       <c r="S6">
-        <v>0.01788962851800042</v>
+        <v>0.004457668501514323</v>
       </c>
       <c r="T6">
-        <v>0.01788962851800042</v>
+        <v>0.004457668501514325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.28470786752469</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="H7">
-        <v>2.28470786752469</v>
+        <v>5.505898</v>
       </c>
       <c r="I7">
-        <v>0.1320672396324036</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="J7">
-        <v>0.1320672396324036</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.39694023528735</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N7">
-        <v>1.39694023528735</v>
+        <v>11.501618</v>
       </c>
       <c r="O7">
-        <v>0.08074994769713023</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P7">
-        <v>0.08074994769713023</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q7">
-        <v>3.1916003460228</v>
+        <v>7.036303949218222</v>
       </c>
       <c r="R7">
-        <v>3.1916003460228</v>
+        <v>63.32673554296399</v>
       </c>
       <c r="S7">
-        <v>0.01066442269282095</v>
+        <v>0.01507674029570711</v>
       </c>
       <c r="T7">
-        <v>0.01066442269282095</v>
+        <v>0.01507674029570711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.28470786752469</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H8">
-        <v>2.28470786752469</v>
+        <v>0.048275</v>
       </c>
       <c r="I8">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="J8">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.28470786752469</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N8">
-        <v>2.28470786752469</v>
+        <v>5.505898</v>
       </c>
       <c r="O8">
-        <v>0.1320672396324036</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P8">
-        <v>0.1320672396324036</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q8">
-        <v>5.219890039929216</v>
+        <v>0.02953302510555556</v>
       </c>
       <c r="R8">
-        <v>5.219890039929216</v>
+        <v>0.26579722595</v>
       </c>
       <c r="S8">
-        <v>0.01744175578412271</v>
+        <v>6.328063041002239E-05</v>
       </c>
       <c r="T8">
-        <v>0.01744175578412271</v>
+        <v>6.328063041002239E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.28470786752469</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H9">
-        <v>2.28470786752469</v>
+        <v>0.048275</v>
       </c>
       <c r="I9">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="J9">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.655669757001791</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N9">
-        <v>8.655669757001791</v>
+        <v>0.048275</v>
       </c>
       <c r="O9">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P9">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q9">
-        <v>19.77567679251751</v>
+        <v>0.0002589417361111111</v>
       </c>
       <c r="R9">
-        <v>19.77567679251751</v>
+        <v>0.002330475625</v>
       </c>
       <c r="S9">
-        <v>0.06607850403789557</v>
+        <v>5.548363651204274E-07</v>
       </c>
       <c r="T9">
-        <v>0.06607850403789557</v>
+        <v>5.548363651204274E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.28470786752469</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H10">
-        <v>2.28470786752469</v>
+        <v>0.048275</v>
       </c>
       <c r="I10">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="J10">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.12965263830334</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N10">
-        <v>1.12965263830334</v>
+        <v>16.265306</v>
       </c>
       <c r="O10">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P10">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q10">
-        <v>2.580926270301664</v>
+        <v>0.0872452941277778</v>
       </c>
       <c r="R10">
-        <v>2.580926270301664</v>
+        <v>0.7852076471500001</v>
       </c>
       <c r="S10">
-        <v>0.008623914557410626</v>
+        <v>0.000186941134305779</v>
       </c>
       <c r="T10">
-        <v>0.008623914557410626</v>
+        <v>0.000186941134305779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,185 +1083,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.28470786752469</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H11">
-        <v>2.28470786752469</v>
+        <v>0.048275</v>
       </c>
       <c r="I11">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="J11">
-        <v>0.1320672396324036</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.8326101842985</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N11">
-        <v>3.8326101842985</v>
+        <v>28.087946</v>
       </c>
       <c r="O11">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P11">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q11">
-        <v>8.756394641222034</v>
+        <v>0.1506606214611111</v>
       </c>
       <c r="R11">
-        <v>8.756394641222034</v>
+        <v>1.35594559315</v>
       </c>
       <c r="S11">
-        <v>0.02925864256015373</v>
+        <v>0.0003228216232488627</v>
       </c>
       <c r="T11">
-        <v>0.02925864256015373</v>
+        <v>0.0003228216232488628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>8.655669757001791</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H12">
-        <v>8.655669757001791</v>
+        <v>0.048275</v>
       </c>
       <c r="I12">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="J12">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.39694023528735</v>
+        <v>1.133543</v>
       </c>
       <c r="N12">
-        <v>1.39694023528735</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O12">
-        <v>0.08074994769713023</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P12">
-        <v>0.08074994769713023</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q12">
-        <v>12.09145334691568</v>
+        <v>0.01824059610833333</v>
       </c>
       <c r="R12">
-        <v>12.09145334691568</v>
+        <v>0.164165364975</v>
       </c>
       <c r="S12">
-        <v>0.04040241743385006</v>
+        <v>3.90842596267864E-05</v>
       </c>
       <c r="T12">
-        <v>0.04040241743385006</v>
+        <v>3.908425962678641E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>8.655669757001791</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H13">
-        <v>8.655669757001791</v>
+        <v>0.048275</v>
       </c>
       <c r="I13">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="J13">
-        <v>0.5003398588614308</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.28470786752469</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N13">
-        <v>2.28470786752469</v>
+        <v>11.501618</v>
       </c>
       <c r="O13">
-        <v>0.1320672396324036</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P13">
-        <v>0.1320672396324036</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q13">
-        <v>19.77567679251751</v>
+        <v>0.06169340099444444</v>
       </c>
       <c r="R13">
-        <v>19.77567679251751</v>
+        <v>0.5552406089499999</v>
       </c>
       <c r="S13">
-        <v>0.06607850403789557</v>
+        <v>0.0001321909046944315</v>
       </c>
       <c r="T13">
-        <v>0.06607850403789557</v>
+        <v>0.0001321909046944315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.655669757001791</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="H14">
-        <v>8.655669757001791</v>
+        <v>16.265306</v>
       </c>
       <c r="I14">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="J14">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.655669757001791</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N14">
-        <v>8.655669757001791</v>
+        <v>5.505898</v>
       </c>
       <c r="O14">
-        <v>0.5003398588614308</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P14">
-        <v>0.5003398588614308</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q14">
-        <v>74.92061894227544</v>
+        <v>9.950568419420891</v>
       </c>
       <c r="R14">
-        <v>74.92061894227544</v>
+        <v>89.55511577478802</v>
       </c>
       <c r="S14">
-        <v>0.2503399743654766</v>
+        <v>0.02132115624012262</v>
       </c>
       <c r="T14">
-        <v>0.2503399743654766</v>
+        <v>0.02132115624012263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.655669757001791</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="H15">
-        <v>8.655669757001791</v>
+        <v>16.265306</v>
       </c>
       <c r="I15">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="J15">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.12965263830334</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N15">
-        <v>1.12965263830334</v>
+        <v>0.048275</v>
       </c>
       <c r="O15">
-        <v>0.0652994230924676</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P15">
-        <v>0.0652994230924676</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q15">
-        <v>9.777900177279504</v>
+        <v>0.0872452941277778</v>
       </c>
       <c r="R15">
-        <v>9.777900177279504</v>
+        <v>0.7852076471500001</v>
       </c>
       <c r="S15">
-        <v>0.0326719041338181</v>
+        <v>0.000186941134305779</v>
       </c>
       <c r="T15">
-        <v>0.0326719041338181</v>
+        <v>0.000186941134305779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,247 +1393,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.655669757001791</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="H16">
-        <v>8.655669757001791</v>
+        <v>16.265306</v>
       </c>
       <c r="I16">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="J16">
-        <v>0.5003398588614308</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.8326101842985</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N16">
-        <v>3.8326101842985</v>
+        <v>16.265306</v>
       </c>
       <c r="O16">
-        <v>0.2215435307165678</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P16">
-        <v>0.2215435307165678</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q16">
-        <v>33.17380806260959</v>
+        <v>29.39557547484846</v>
       </c>
       <c r="R16">
-        <v>33.17380806260959</v>
+        <v>264.5601792736361</v>
       </c>
       <c r="S16">
-        <v>0.1108470588903906</v>
+        <v>0.06298611607396361</v>
       </c>
       <c r="T16">
-        <v>0.1108470588903906</v>
+        <v>0.06298611607396361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.12965263830334</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="H17">
-        <v>1.12965263830334</v>
+        <v>16.265306</v>
       </c>
       <c r="I17">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="J17">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.39694023528735</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N17">
-        <v>1.39694023528735</v>
+        <v>28.087946</v>
       </c>
       <c r="O17">
-        <v>0.08074994769713023</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P17">
-        <v>0.08074994769713023</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q17">
-        <v>1.578057222344443</v>
+        <v>50.76211517794179</v>
       </c>
       <c r="R17">
-        <v>1.578057222344443</v>
+        <v>456.8590366014761</v>
       </c>
       <c r="S17">
-        <v>0.005272924999369537</v>
+        <v>0.1087683580644115</v>
       </c>
       <c r="T17">
-        <v>0.005272924999369537</v>
+        <v>0.1087683580644116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.12965263830334</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="H18">
-        <v>1.12965263830334</v>
+        <v>16.265306</v>
       </c>
       <c r="I18">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="J18">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28470786752469</v>
+        <v>1.133543</v>
       </c>
       <c r="N18">
-        <v>2.28470786752469</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O18">
-        <v>0.1320672396324036</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P18">
-        <v>0.1320672396324036</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q18">
-        <v>2.580926270301664</v>
+        <v>6.145807919719333</v>
       </c>
       <c r="R18">
-        <v>2.580926270301664</v>
+        <v>55.312271277474</v>
       </c>
       <c r="S18">
-        <v>0.008623914557410626</v>
+        <v>0.01316866789462717</v>
       </c>
       <c r="T18">
-        <v>0.008623914557410626</v>
+        <v>0.01316866789462717</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.12965263830334</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="H19">
-        <v>1.12965263830334</v>
+        <v>16.265306</v>
       </c>
       <c r="I19">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="J19">
-        <v>0.0652994230924676</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.655669757001791</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N19">
-        <v>8.655669757001791</v>
+        <v>11.501618</v>
       </c>
       <c r="O19">
-        <v>0.5003398588614308</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P19">
-        <v>0.5003398588614308</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q19">
-        <v>9.777900177279504</v>
+        <v>20.78637069612311</v>
       </c>
       <c r="R19">
-        <v>9.777900177279504</v>
+        <v>187.077336265108</v>
       </c>
       <c r="S19">
-        <v>0.0326719041338181</v>
+        <v>0.04453910958615773</v>
       </c>
       <c r="T19">
-        <v>0.0326719041338181</v>
+        <v>0.04453910958615774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1638,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.12965263830334</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="H20">
-        <v>1.12965263830334</v>
+        <v>28.087946</v>
       </c>
       <c r="I20">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="J20">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.12965263830334</v>
+        <v>1.835299333333333</v>
       </c>
       <c r="N20">
-        <v>1.12965263830334</v>
+        <v>5.505898</v>
       </c>
       <c r="O20">
-        <v>0.0652994230924676</v>
+        <v>0.08495488142572298</v>
       </c>
       <c r="P20">
-        <v>0.0652994230924676</v>
+        <v>0.08495488142572299</v>
       </c>
       <c r="Q20">
-        <v>1.276115083225697</v>
+        <v>17.18326285616756</v>
       </c>
       <c r="R20">
-        <v>1.276115083225697</v>
+        <v>154.649365705508</v>
       </c>
       <c r="S20">
-        <v>0.004264014656209091</v>
+        <v>0.03681870387991024</v>
       </c>
       <c r="T20">
-        <v>0.004264014656209091</v>
+        <v>0.03681870387991024</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1700,309 +1703,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.12965263830334</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="H21">
-        <v>1.12965263830334</v>
+        <v>28.087946</v>
       </c>
       <c r="I21">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="J21">
-        <v>0.0652994230924676</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.8326101842985</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="N21">
-        <v>3.8326101842985</v>
+        <v>0.048275</v>
       </c>
       <c r="O21">
-        <v>0.2215435307165678</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="P21">
-        <v>0.2215435307165678</v>
+        <v>0.0007448733886510025</v>
       </c>
       <c r="Q21">
-        <v>4.329518206281051</v>
+        <v>0.1506606214611111</v>
       </c>
       <c r="R21">
-        <v>4.329518206281051</v>
+        <v>1.35594559315</v>
       </c>
       <c r="S21">
-        <v>0.01446666474566025</v>
+        <v>0.0003228216232488627</v>
       </c>
       <c r="T21">
-        <v>0.01446666474566025</v>
+        <v>0.0003228216232488628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.8326101842985</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="H22">
-        <v>3.8326101842985</v>
+        <v>28.087946</v>
       </c>
       <c r="I22">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="J22">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.39694023528735</v>
+        <v>5.421768666666668</v>
       </c>
       <c r="N22">
-        <v>1.39694023528735</v>
+        <v>16.265306</v>
       </c>
       <c r="O22">
-        <v>0.08074994769713023</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="P22">
-        <v>0.08074994769713023</v>
+        <v>0.2509703489935885</v>
       </c>
       <c r="Q22">
-        <v>5.35392737261864</v>
+        <v>50.76211517794179</v>
       </c>
       <c r="R22">
-        <v>5.35392737261864</v>
+        <v>456.8590366014761</v>
       </c>
       <c r="S22">
-        <v>0.01788962851800042</v>
+        <v>0.1087683580644115</v>
       </c>
       <c r="T22">
-        <v>0.01788962851800042</v>
+        <v>0.1087683580644116</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.8326101842985</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="H23">
-        <v>3.8326101842985</v>
+        <v>28.087946</v>
       </c>
       <c r="I23">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="J23">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.28470786752469</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="N23">
-        <v>2.28470786752469</v>
+        <v>28.087946</v>
       </c>
       <c r="O23">
-        <v>0.1320672396324036</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="P23">
-        <v>0.1320672396324036</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="Q23">
-        <v>8.756394641222034</v>
+        <v>87.65919005543512</v>
       </c>
       <c r="R23">
-        <v>8.756394641222034</v>
+        <v>788.9327104989161</v>
       </c>
       <c r="S23">
-        <v>0.02925864256015373</v>
+        <v>0.1878279921583925</v>
       </c>
       <c r="T23">
-        <v>0.02925864256015373</v>
+        <v>0.1878279921583926</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.8326101842985</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="H24">
-        <v>3.8326101842985</v>
+        <v>28.087946</v>
       </c>
       <c r="I24">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="J24">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.655669757001791</v>
+        <v>1.133543</v>
       </c>
       <c r="N24">
-        <v>8.655669757001791</v>
+        <v>3.400628999999999</v>
       </c>
       <c r="O24">
-        <v>0.5003398588614308</v>
+        <v>0.05247101080838672</v>
       </c>
       <c r="P24">
-        <v>0.5003398588614308</v>
+        <v>0.05247101080838674</v>
       </c>
       <c r="Q24">
-        <v>33.17380806260959</v>
+        <v>10.61296485755933</v>
       </c>
       <c r="R24">
-        <v>33.17380806260959</v>
+        <v>95.51668371803399</v>
       </c>
       <c r="S24">
-        <v>0.1108470588903906</v>
+        <v>0.02274047796679765</v>
       </c>
       <c r="T24">
-        <v>0.1108470588903906</v>
+        <v>0.02274047796679765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.8326101842985</v>
+        <v>9.362648666666667</v>
       </c>
       <c r="H25">
-        <v>3.8326101842985</v>
+        <v>28.087946</v>
       </c>
       <c r="I25">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="J25">
-        <v>0.2215435307165678</v>
+        <v>0.4333912691303236</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.12965263830334</v>
+        <v>3.833872666666666</v>
       </c>
       <c r="N25">
-        <v>1.12965263830334</v>
+        <v>11.501618</v>
       </c>
       <c r="O25">
-        <v>0.0652994230924676</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="P25">
-        <v>0.0652994230924676</v>
+        <v>0.1774676162533271</v>
       </c>
       <c r="Q25">
-        <v>4.329518206281051</v>
+        <v>35.89520281073644</v>
       </c>
       <c r="R25">
-        <v>4.329518206281051</v>
+        <v>323.056825296628</v>
       </c>
       <c r="S25">
-        <v>0.01446666474566025</v>
+        <v>0.07691291543756265</v>
       </c>
       <c r="T25">
-        <v>0.01446666474566025</v>
+        <v>0.07691291543756268</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2010,61 +2013,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.133543</v>
+      </c>
+      <c r="H26">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="J26">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.835299333333333</v>
+      </c>
+      <c r="N26">
+        <v>5.505898</v>
+      </c>
+      <c r="O26">
+        <v>0.08495488142572298</v>
+      </c>
+      <c r="P26">
+        <v>0.08495488142572299</v>
+      </c>
+      <c r="Q26">
+        <v>2.080390712204666</v>
+      </c>
+      <c r="R26">
+        <v>18.723516409842</v>
+      </c>
+      <c r="S26">
+        <v>0.004457668501514323</v>
+      </c>
+      <c r="T26">
+        <v>0.004457668501514325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.133543</v>
+      </c>
+      <c r="H27">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="J27">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01609166666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.048275</v>
+      </c>
+      <c r="O27">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="P27">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="Q27">
+        <v>0.01824059610833333</v>
+      </c>
+      <c r="R27">
+        <v>0.164165364975</v>
+      </c>
+      <c r="S27">
+        <v>3.90842596267864E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.908425962678641E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.133543</v>
+      </c>
+      <c r="H28">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="J28">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.421768666666668</v>
+      </c>
+      <c r="N28">
+        <v>16.265306</v>
+      </c>
+      <c r="O28">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="P28">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="Q28">
+        <v>6.145807919719333</v>
+      </c>
+      <c r="R28">
+        <v>55.312271277474</v>
+      </c>
+      <c r="S28">
+        <v>0.01316866789462717</v>
+      </c>
+      <c r="T28">
+        <v>0.01316866789462717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.133543</v>
+      </c>
+      <c r="H29">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="J29">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.362648666666667</v>
+      </c>
+      <c r="N29">
+        <v>28.087946</v>
+      </c>
+      <c r="O29">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="P29">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="Q29">
+        <v>10.61296485755933</v>
+      </c>
+      <c r="R29">
+        <v>95.51668371803399</v>
+      </c>
+      <c r="S29">
+        <v>0.02274047796679765</v>
+      </c>
+      <c r="T29">
+        <v>0.02274047796679765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.133543</v>
+      </c>
+      <c r="H30">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="J30">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.133543</v>
+      </c>
+      <c r="N30">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="P30">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="Q30">
+        <v>1.284919732848999</v>
+      </c>
+      <c r="R30">
+        <v>11.564277595641</v>
+      </c>
+      <c r="S30">
+        <v>0.002753206975253836</v>
+      </c>
+      <c r="T30">
+        <v>0.002753206975253838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.133543</v>
+      </c>
+      <c r="H31">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="J31">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="N31">
+        <v>11.501618</v>
+      </c>
+      <c r="O31">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="P31">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="Q31">
+        <v>4.345859524191332</v>
+      </c>
+      <c r="R31">
+        <v>39.11273571772199</v>
+      </c>
+      <c r="S31">
+        <v>0.009311905210566953</v>
+      </c>
+      <c r="T31">
+        <v>0.009311905210566957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="H32">
+        <v>11.501618</v>
+      </c>
+      <c r="I32">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="J32">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.835299333333333</v>
+      </c>
+      <c r="N32">
+        <v>5.505898</v>
+      </c>
+      <c r="O32">
+        <v>0.08495488142572298</v>
+      </c>
+      <c r="P32">
+        <v>0.08495488142572299</v>
+      </c>
+      <c r="Q32">
+        <v>7.036303949218222</v>
+      </c>
+      <c r="R32">
+        <v>63.32673554296399</v>
+      </c>
+      <c r="S32">
+        <v>0.01507674029570711</v>
+      </c>
+      <c r="T32">
+        <v>0.01507674029570711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="H33">
+        <v>11.501618</v>
+      </c>
+      <c r="I33">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="J33">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01609166666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.048275</v>
+      </c>
+      <c r="O33">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="P33">
+        <v>0.0007448733886510025</v>
+      </c>
+      <c r="Q33">
+        <v>0.06169340099444444</v>
+      </c>
+      <c r="R33">
+        <v>0.5552406089499999</v>
+      </c>
+      <c r="S33">
+        <v>0.0001321909046944315</v>
+      </c>
+      <c r="T33">
+        <v>0.0001321909046944315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="H34">
+        <v>11.501618</v>
+      </c>
+      <c r="I34">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="J34">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.421768666666668</v>
+      </c>
+      <c r="N34">
+        <v>16.265306</v>
+      </c>
+      <c r="O34">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="P34">
+        <v>0.2509703489935885</v>
+      </c>
+      <c r="Q34">
+        <v>20.78637069612311</v>
+      </c>
+      <c r="R34">
+        <v>187.077336265108</v>
+      </c>
+      <c r="S34">
+        <v>0.04453910958615773</v>
+      </c>
+      <c r="T34">
+        <v>0.04453910958615774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="H35">
+        <v>11.501618</v>
+      </c>
+      <c r="I35">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="J35">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.362648666666667</v>
+      </c>
+      <c r="N35">
+        <v>28.087946</v>
+      </c>
+      <c r="O35">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="P35">
+        <v>0.4333912691303236</v>
+      </c>
+      <c r="Q35">
+        <v>35.89520281073644</v>
+      </c>
+      <c r="R35">
+        <v>323.056825296628</v>
+      </c>
+      <c r="S35">
+        <v>0.07691291543756265</v>
+      </c>
+      <c r="T35">
+        <v>0.07691291543756268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3.8326101842985</v>
-      </c>
-      <c r="H26">
-        <v>3.8326101842985</v>
-      </c>
-      <c r="I26">
-        <v>0.2215435307165678</v>
-      </c>
-      <c r="J26">
-        <v>0.2215435307165678</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.8326101842985</v>
-      </c>
-      <c r="N26">
-        <v>3.8326101842985</v>
-      </c>
-      <c r="O26">
-        <v>0.2215435307165678</v>
-      </c>
-      <c r="P26">
-        <v>0.2215435307165678</v>
-      </c>
-      <c r="Q26">
-        <v>14.68890082478858</v>
-      </c>
-      <c r="R26">
-        <v>14.68890082478858</v>
-      </c>
-      <c r="S26">
-        <v>0.04908153600236284</v>
-      </c>
-      <c r="T26">
-        <v>0.04908153600236284</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="H36">
+        <v>11.501618</v>
+      </c>
+      <c r="I36">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="J36">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.133543</v>
+      </c>
+      <c r="N36">
+        <v>3.400628999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.05247101080838672</v>
+      </c>
+      <c r="P36">
+        <v>0.05247101080838674</v>
+      </c>
+      <c r="Q36">
+        <v>4.345859524191332</v>
+      </c>
+      <c r="R36">
+        <v>39.11273571772199</v>
+      </c>
+      <c r="S36">
+        <v>0.009311905210566953</v>
+      </c>
+      <c r="T36">
+        <v>0.009311905210566957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="H37">
+        <v>11.501618</v>
+      </c>
+      <c r="I37">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="J37">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.833872666666666</v>
+      </c>
+      <c r="N37">
+        <v>11.501618</v>
+      </c>
+      <c r="O37">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="P37">
+        <v>0.1774676162533271</v>
+      </c>
+      <c r="Q37">
+        <v>14.69857962421377</v>
+      </c>
+      <c r="R37">
+        <v>132.287216617924</v>
+      </c>
+      <c r="S37">
+        <v>0.03149475481863816</v>
+      </c>
+      <c r="T37">
+        <v>0.03149475481863817</v>
       </c>
     </row>
   </sheetData>
